--- a/biology/Botanique/Parenchyme_cortical/Parenchyme_cortical.xlsx
+++ b/biology/Botanique/Parenchyme_cortical/Parenchyme_cortical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parenchyme cortical est un parenchyme végétal composé de grandes cellules polyédriques, situé au niveau du cortex de la tige ou de la racine d'une plante à fleur.
 Dans la racine, ce tissu composé de cellules non chlorophylliennes peut avoir différentes fonctions : entreposage d'amidon dans les amyloplastes (typique d'un organe de réserve), aération des tissus racinaires (espaces intercellulaires appelés méats). 
-Dans une tige, le cortex, moins développé que dans une racine car la fonction de réserve disparaît, est formé du parenchyme cortical souvent associé à des tissus de soutien, collenchyme et/ou sclérenchyme. Les cellules de la périphérie renferment des chloroplastes (parenchyme palissadique qui suggère que cette tige est chlorophyllienne), mais leur nombre diminue au fur et à mesure qu'on s'enfonce vers l'intérieur[1].
+Dans une tige, le cortex, moins développé que dans une racine car la fonction de réserve disparaît, est formé du parenchyme cortical souvent associé à des tissus de soutien, collenchyme et/ou sclérenchyme. Les cellules de la périphérie renferment des chloroplastes (parenchyme palissadique qui suggère que cette tige est chlorophyllienne), mais leur nombre diminue au fur et à mesure qu'on s'enfonce vers l'intérieur.
 </t>
         </is>
       </c>
